--- a/Circle_test.xlsx
+++ b/Circle_test.xlsx
@@ -20,9 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">50HZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200HZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400HZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800HZ</t>
   </si>
 </sst>
 </file>
@@ -32,7 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -66,6 +75,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -128,8 +143,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -153,516 +168,792 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47:B51"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>335.82</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="3" t="n">
+        <v>329.62</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>295.52</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>218.89</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>336.54</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="3" t="n">
+        <v>332.23</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>298.77</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>215.37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>335.17</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="3" t="n">
+        <v>330.62</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>298.66</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>215.62</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>335.26</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="3" t="n">
+        <v>330.66</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>297.65</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>215.85</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>334.38</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="3" t="n">
+        <v>330.28</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>297.86</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>216.46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>332.34</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="3" t="n">
+        <v>327.03</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>287.76</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>209.59</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>331.22</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3" t="n">
+        <v>324.35</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>286.04</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>209.7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>333.42</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="3" t="n">
+        <v>328.19</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>287.68</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>206.55</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>331.69</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="n">
+        <v>324.54</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>287.74</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>205.87</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>333.35</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="n">
+        <v>326.14</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>288.35</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>205.75</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>310.5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3" t="n">
+        <v>306</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>277.47</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>204.37</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>309.37</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3" t="n">
+        <v>305.16</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>276.85</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>203.98</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>308.98</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="3" t="n">
+        <v>304.65</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>276.91</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>204.3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>307.17</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3" t="n">
+        <v>302.61</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>276.24</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>204.17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>310.51</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3" t="n">
+        <v>306.16</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>277.65</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>204.04</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>343.17</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="3" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>289.46</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>203.02</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>341.58</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="3" t="n">
+        <v>333.87</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>287.31</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>201.1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>343.31</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="3" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>288.68</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>202.36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>342.79</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="3" t="n">
+        <v>334.33</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>288.71</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>201.87</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>344.31</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="3" t="n">
+        <v>337.09</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>288.46</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>206.1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>316.54</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="3" t="n">
+        <v>310.96</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>279.1</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>205.86</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>313.65</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="3" t="n">
+        <v>308.39</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>277.08</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>202.45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>314.1</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="3" t="n">
+        <v>309.27</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>201.88</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>315.02</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="3" t="n">
+        <v>310.27</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>278.01</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>202.92</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>314.82</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="3" t="n">
+        <v>309.95</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>277.69</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>202.24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>306.52</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="3" t="n">
+        <v>301.98</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>278.43</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>210.2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>306.1</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="3" t="n">
+        <v>301.68</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>278.39</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>209.71</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>303.95</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="3" t="n">
+        <v>300.23</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>276.93</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>208.11</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>303.62</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="3" t="n">
+        <v>299.53</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>276.66</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>208.24</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>305.3</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="3" t="n">
+        <v>301.1</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>278.75</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>209.3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>312.31</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="3" t="n">
+        <v>306.96</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>274.14</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>199.27</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>313.09</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="3" t="n">
+        <v>307.66</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>274.6</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>199.63</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>311.91</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="3" t="n">
+        <v>306.19</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>273.46</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>198.63</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>311.77</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="3" t="n">
+        <v>306.77</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>273.55</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>199.25</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>313.76</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="3" t="n">
+        <v>308.16</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>275.32</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>199.76</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>322.51</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="3" t="n">
+        <v>318.43</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>297.06</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>228.13</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>320.7</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="3" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>295.46</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>226.23</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>322.12</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="3" t="n">
+        <v>317.97</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>296.1</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>226.94</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>323.62</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="3" t="n">
+        <v>319.77</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>297.23</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>227.6</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="n">
         <v>324.18</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="3" t="n">
+        <v>319.84</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>297.88</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>227.76</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="n">
         <v>320.99</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="3" t="n">
+        <v>317.72</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>294.36</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>225.62</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="n">
         <v>318.74</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="3" t="n">
+        <v>315.08</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>292.58</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>224.7</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="n">
         <v>314.96</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="3" t="n">
+        <v>312.86</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>289.9</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>222.46</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="n">
         <v>322.05</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="3" t="n">
+        <v>318.2</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>296.62</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>228.19</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="n">
         <v>315.02</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
+      <c r="C46" s="3" t="n">
+        <v>311.4</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>288.77</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>221.59</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -671,6 +962,15 @@
       <c r="B47" s="5" t="n">
         <v>310.31</v>
       </c>
+      <c r="C47" s="3" t="n">
+        <v>308.02</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>283.91</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>218.34</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -679,6 +979,15 @@
       <c r="B48" s="5" t="n">
         <v>311.34</v>
       </c>
+      <c r="C48" s="3" t="n">
+        <v>308.78</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>284.51</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>217.45</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -687,6 +996,15 @@
       <c r="B49" s="5" t="n">
         <v>309.07</v>
       </c>
+      <c r="C49" s="3" t="n">
+        <v>306.59</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>281.74</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -695,6 +1013,15 @@
       <c r="B50" s="5" t="n">
         <v>317.59</v>
       </c>
+      <c r="C50" s="3" t="n">
+        <v>313.09</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>290.07</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>222.61</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -703,6 +1030,19 @@
       <c r="B51" s="5" t="n">
         <v>312.88</v>
       </c>
+      <c r="C51" s="3" t="n">
+        <v>309.8</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>286.99</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>217.54</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
